--- a/output/cluster.game_info.json/game.xlsx
+++ b/output/cluster.game_info.json/game.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2835"/>
+  <dimension ref="A1:E2874"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77098,6 +77098,1059 @@
         </is>
       </c>
     </row>
+    <row customHeight="1" ht="15" r="2836">
+      <c r="A2836" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:42:16.589447</t>
+        </is>
+      </c>
+      <c r="B2836" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C2836" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="D2836" t="inlineStr">
+        <is>
+          <t>Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1) fully save db, dbversion=457, dbterm=13</t>
+        </is>
+      </c>
+      <c r="E2836" t="inlineStr">
+        <is>
+          <t>[handler]     ...er\Engine/Core\Server\Components\PersistentComponent.lua:171</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2837">
+      <c r="A2837" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:42:16.589510</t>
+        </is>
+      </c>
+      <c r="B2837" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C2837" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="D2837" t="inlineStr">
+        <is>
+          <t>copySingleWorldData	Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1)	252</t>
+        </is>
+      </c>
+      <c r="E2837" t="inlineStr">
+        <is>
+          <t>[copySingleWorldData]     ...rldX_P4\server\Scripts/Entities\SpaceEntities\Player.lua:637</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2838">
+      <c r="A2838" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:42:16.755407</t>
+        </is>
+      </c>
+      <c r="B2838" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C2838" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="D2838" t="inlineStr">
+        <is>
+          <t>saveAck for Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1)</t>
+        </is>
+      </c>
+      <c r="E2838" t="inlineStr">
+        <is>
+          <t>[callback]     ...ceEntities\PlayerComponent\PlayerPersistentComponent.lua:37</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2839">
+      <c r="A2839" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:42:16.755424</t>
+        </is>
+      </c>
+      <c r="B2839" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C2839" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="D2839" t="inlineStr">
+        <is>
+          <t>Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1) fully save db succeed, dbversion=457, dbterm=13</t>
+        </is>
+      </c>
+      <c r="E2839" t="inlineStr">
+        <is>
+          <t>[saveAck]     ...er\Engine/Core\Server\Components\PersistentComponent.lua:156</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2840">
+      <c r="A2840" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:47:16.612198</t>
+        </is>
+      </c>
+      <c r="B2840" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C2840" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="D2840" t="inlineStr">
+        <is>
+          <t>Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1) fully save db, dbversion=458, dbterm=13</t>
+        </is>
+      </c>
+      <c r="E2840" t="inlineStr">
+        <is>
+          <t>[handler]     ...er\Engine/Core\Server\Components\PersistentComponent.lua:171</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2841">
+      <c r="A2841" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:47:16.612229</t>
+        </is>
+      </c>
+      <c r="B2841" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C2841" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="D2841" t="inlineStr">
+        <is>
+          <t>copySingleWorldData	Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1)	252</t>
+        </is>
+      </c>
+      <c r="E2841" t="inlineStr">
+        <is>
+          <t>[copySingleWorldData]     ...rldX_P4\server\Scripts/Entities\SpaceEntities\Player.lua:637</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2842">
+      <c r="A2842" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:47:16.748848</t>
+        </is>
+      </c>
+      <c r="B2842" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C2842" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="D2842" t="inlineStr">
+        <is>
+          <t>saveAck for Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1)</t>
+        </is>
+      </c>
+      <c r="E2842" t="inlineStr">
+        <is>
+          <t>[callback]     ...ceEntities\PlayerComponent\PlayerPersistentComponent.lua:37</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2843">
+      <c r="A2843" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:47:16.748914</t>
+        </is>
+      </c>
+      <c r="B2843" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C2843" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="D2843" t="inlineStr">
+        <is>
+          <t>Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1) fully save db succeed, dbversion=458, dbterm=13</t>
+        </is>
+      </c>
+      <c r="E2843" t="inlineStr">
+        <is>
+          <t>[saveAck]     ...er\Engine/Core\Server\Components\PersistentComponent.lua:156</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2844">
+      <c r="A2844" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:51:03.488226</t>
+        </is>
+      </c>
+      <c r="B2844" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C2844" t="inlineStr">
+        <is>
+          <t>Gc</t>
+        </is>
+      </c>
+      <c r="D2844" t="inlineStr">
+        <is>
+          <t>fullGc check got totalBytes 132675482</t>
+        </is>
+      </c>
+      <c r="E2844" t="inlineStr">
+        <is>
+          <t>[checkIntervalFullGc]     C:\__WorldX_P4\server\Engine/Core\Server\Memory\Gc.lua:42</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2845">
+      <c r="A2845" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:52:16.621645</t>
+        </is>
+      </c>
+      <c r="B2845" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C2845" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="D2845" t="inlineStr">
+        <is>
+          <t>Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1) fully save db, dbversion=459, dbterm=13</t>
+        </is>
+      </c>
+      <c r="E2845" t="inlineStr">
+        <is>
+          <t>[handler]     ...er\Engine/Core\Server\Components\PersistentComponent.lua:171</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2846">
+      <c r="A2846" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:52:16.621669</t>
+        </is>
+      </c>
+      <c r="B2846" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C2846" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="D2846" t="inlineStr">
+        <is>
+          <t>copySingleWorldData	Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1)	252</t>
+        </is>
+      </c>
+      <c r="E2846" t="inlineStr">
+        <is>
+          <t>[copySingleWorldData]     ...rldX_P4\server\Scripts/Entities\SpaceEntities\Player.lua:637</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2847">
+      <c r="A2847" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:52:16.758754</t>
+        </is>
+      </c>
+      <c r="B2847" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C2847" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="D2847" t="inlineStr">
+        <is>
+          <t>saveAck for Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1)</t>
+        </is>
+      </c>
+      <c r="E2847" t="inlineStr">
+        <is>
+          <t>[callback]     ...ceEntities\PlayerComponent\PlayerPersistentComponent.lua:37</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2848">
+      <c r="A2848" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:52:16.758774</t>
+        </is>
+      </c>
+      <c r="B2848" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C2848" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="D2848" t="inlineStr">
+        <is>
+          <t>Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1) fully save db succeed, dbversion=459, dbterm=13</t>
+        </is>
+      </c>
+      <c r="E2848" t="inlineStr">
+        <is>
+          <t>[saveAck]     ...er\Engine/Core\Server\Components\PersistentComponent.lua:156</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2849">
+      <c r="A2849" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:57:16.627356</t>
+        </is>
+      </c>
+      <c r="B2849" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C2849" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="D2849" t="inlineStr">
+        <is>
+          <t>Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1) fully save db, dbversion=460, dbterm=13</t>
+        </is>
+      </c>
+      <c r="E2849" t="inlineStr">
+        <is>
+          <t>[handler]     ...er\Engine/Core\Server\Components\PersistentComponent.lua:171</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2850">
+      <c r="A2850" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:57:16.627383</t>
+        </is>
+      </c>
+      <c r="B2850" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C2850" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="D2850" t="inlineStr">
+        <is>
+          <t>copySingleWorldData	Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1)	252</t>
+        </is>
+      </c>
+      <c r="E2850" t="inlineStr">
+        <is>
+          <t>[copySingleWorldData]     ...rldX_P4\server\Scripts/Entities\SpaceEntities\Player.lua:637</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2851">
+      <c r="A2851" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:57:16.791055</t>
+        </is>
+      </c>
+      <c r="B2851" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C2851" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="D2851" t="inlineStr">
+        <is>
+          <t>saveAck for Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1)</t>
+        </is>
+      </c>
+      <c r="E2851" t="inlineStr">
+        <is>
+          <t>[callback]     ...ceEntities\PlayerComponent\PlayerPersistentComponent.lua:37</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2852">
+      <c r="A2852" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:57:16.791076</t>
+        </is>
+      </c>
+      <c r="B2852" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C2852" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="D2852" t="inlineStr">
+        <is>
+          <t>Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1) fully save db succeed, dbversion=460, dbterm=13</t>
+        </is>
+      </c>
+      <c r="E2852" t="inlineStr">
+        <is>
+          <t>[saveAck]     ...er\Engine/Core\Server\Components\PersistentComponent.lua:156</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2853">
+      <c r="A2853" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:02:16.651212</t>
+        </is>
+      </c>
+      <c r="B2853" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C2853" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="D2853" t="inlineStr">
+        <is>
+          <t>Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1) fully save db, dbversion=461, dbterm=13</t>
+        </is>
+      </c>
+      <c r="E2853" t="inlineStr">
+        <is>
+          <t>[handler]     ...er\Engine/Core\Server\Components\PersistentComponent.lua:171</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2854">
+      <c r="A2854" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:02:16.651263</t>
+        </is>
+      </c>
+      <c r="B2854" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C2854" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="D2854" t="inlineStr">
+        <is>
+          <t>copySingleWorldData	Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1)	252</t>
+        </is>
+      </c>
+      <c r="E2854" t="inlineStr">
+        <is>
+          <t>[copySingleWorldData]     ...rldX_P4\server\Scripts/Entities\SpaceEntities\Player.lua:637</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2855">
+      <c r="A2855" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:02:16.810041</t>
+        </is>
+      </c>
+      <c r="B2855" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C2855" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="D2855" t="inlineStr">
+        <is>
+          <t>saveAck for Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1)</t>
+        </is>
+      </c>
+      <c r="E2855" t="inlineStr">
+        <is>
+          <t>[callback]     ...ceEntities\PlayerComponent\PlayerPersistentComponent.lua:37</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2856">
+      <c r="A2856" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:02:16.810070</t>
+        </is>
+      </c>
+      <c r="B2856" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C2856" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="D2856" t="inlineStr">
+        <is>
+          <t>Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1) fully save db succeed, dbversion=461, dbterm=13</t>
+        </is>
+      </c>
+      <c r="E2856" t="inlineStr">
+        <is>
+          <t>[saveAck]     ...er\Engine/Core\Server\Components\PersistentComponent.lua:156</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2857">
+      <c r="A2857" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:06:03.517609</t>
+        </is>
+      </c>
+      <c r="B2857" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C2857" t="inlineStr">
+        <is>
+          <t>Gc</t>
+        </is>
+      </c>
+      <c r="D2857" t="inlineStr">
+        <is>
+          <t>fullGc check got totalBytes 132680054</t>
+        </is>
+      </c>
+      <c r="E2857" t="inlineStr">
+        <is>
+          <t>[checkIntervalFullGc]     C:\__WorldX_P4\server\Engine/Core\Server\Memory\Gc.lua:42</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2858">
+      <c r="A2858" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:07:16.658892</t>
+        </is>
+      </c>
+      <c r="B2858" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C2858" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="D2858" t="inlineStr">
+        <is>
+          <t>Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1) fully save db, dbversion=462, dbterm=13</t>
+        </is>
+      </c>
+      <c r="E2858" t="inlineStr">
+        <is>
+          <t>[handler]     ...er\Engine/Core\Server\Components\PersistentComponent.lua:171</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2859">
+      <c r="A2859" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:07:16.658923</t>
+        </is>
+      </c>
+      <c r="B2859" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C2859" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="D2859" t="inlineStr">
+        <is>
+          <t>copySingleWorldData	Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1)	252</t>
+        </is>
+      </c>
+      <c r="E2859" t="inlineStr">
+        <is>
+          <t>[copySingleWorldData]     ...rldX_P4\server\Scripts/Entities\SpaceEntities\Player.lua:637</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2860">
+      <c r="A2860" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:07:16.793785</t>
+        </is>
+      </c>
+      <c r="B2860" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C2860" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="D2860" t="inlineStr">
+        <is>
+          <t>saveAck for Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1)</t>
+        </is>
+      </c>
+      <c r="E2860" t="inlineStr">
+        <is>
+          <t>[callback]     ...ceEntities\PlayerComponent\PlayerPersistentComponent.lua:37</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2861">
+      <c r="A2861" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:07:16.793811</t>
+        </is>
+      </c>
+      <c r="B2861" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C2861" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="D2861" t="inlineStr">
+        <is>
+          <t>Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1) fully save db succeed, dbversion=462, dbterm=13</t>
+        </is>
+      </c>
+      <c r="E2861" t="inlineStr">
+        <is>
+          <t>[saveAck]     ...er\Engine/Core\Server\Components\PersistentComponent.lua:156</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2862">
+      <c r="A2862" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:12:16.691630</t>
+        </is>
+      </c>
+      <c r="B2862" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C2862" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="D2862" t="inlineStr">
+        <is>
+          <t>Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1) fully save db, dbversion=463, dbterm=13</t>
+        </is>
+      </c>
+      <c r="E2862" t="inlineStr">
+        <is>
+          <t>[handler]     ...er\Engine/Core\Server\Components\PersistentComponent.lua:171</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2863">
+      <c r="A2863" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:12:16.691668</t>
+        </is>
+      </c>
+      <c r="B2863" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C2863" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="D2863" t="inlineStr">
+        <is>
+          <t>copySingleWorldData	Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1)	252</t>
+        </is>
+      </c>
+      <c r="E2863" t="inlineStr">
+        <is>
+          <t>[copySingleWorldData]     ...rldX_P4\server\Scripts/Entities\SpaceEntities\Player.lua:637</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2864">
+      <c r="A2864" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:12:16.848552</t>
+        </is>
+      </c>
+      <c r="B2864" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C2864" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="D2864" t="inlineStr">
+        <is>
+          <t>saveAck for Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1)</t>
+        </is>
+      </c>
+      <c r="E2864" t="inlineStr">
+        <is>
+          <t>[callback]     ...ceEntities\PlayerComponent\PlayerPersistentComponent.lua:37</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2865">
+      <c r="A2865" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:12:16.848587</t>
+        </is>
+      </c>
+      <c r="B2865" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C2865" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="D2865" t="inlineStr">
+        <is>
+          <t>Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1) fully save db succeed, dbversion=463, dbterm=13</t>
+        </is>
+      </c>
+      <c r="E2865" t="inlineStr">
+        <is>
+          <t>[saveAck]     ...er\Engine/Core\Server\Components\PersistentComponent.lua:156</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2866">
+      <c r="A2866" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:17:16.723365</t>
+        </is>
+      </c>
+      <c r="B2866" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C2866" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="D2866" t="inlineStr">
+        <is>
+          <t>Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1) fully save db, dbversion=464, dbterm=13</t>
+        </is>
+      </c>
+      <c r="E2866" t="inlineStr">
+        <is>
+          <t>[handler]     ...er\Engine/Core\Server\Components\PersistentComponent.lua:171</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2867">
+      <c r="A2867" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:17:16.723416</t>
+        </is>
+      </c>
+      <c r="B2867" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C2867" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="D2867" t="inlineStr">
+        <is>
+          <t>copySingleWorldData	Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1)	252</t>
+        </is>
+      </c>
+      <c r="E2867" t="inlineStr">
+        <is>
+          <t>[copySingleWorldData]     ...rldX_P4\server\Scripts/Entities\SpaceEntities\Player.lua:637</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2868">
+      <c r="A2868" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:17:16.878271</t>
+        </is>
+      </c>
+      <c r="B2868" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C2868" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="D2868" t="inlineStr">
+        <is>
+          <t>saveAck for Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1)</t>
+        </is>
+      </c>
+      <c r="E2868" t="inlineStr">
+        <is>
+          <t>[callback]     ...ceEntities\PlayerComponent\PlayerPersistentComponent.lua:37</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2869">
+      <c r="A2869" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:17:16.878298</t>
+        </is>
+      </c>
+      <c r="B2869" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C2869" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="D2869" t="inlineStr">
+        <is>
+          <t>Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1) fully save db succeed, dbversion=464, dbterm=13</t>
+        </is>
+      </c>
+      <c r="E2869" t="inlineStr">
+        <is>
+          <t>[saveAck]     ...er\Engine/Core\Server\Components\PersistentComponent.lua:156</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2870">
+      <c r="A2870" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:21:03.548251</t>
+        </is>
+      </c>
+      <c r="B2870" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C2870" t="inlineStr">
+        <is>
+          <t>Gc</t>
+        </is>
+      </c>
+      <c r="D2870" t="inlineStr">
+        <is>
+          <t>fullGc check got totalBytes 132682846</t>
+        </is>
+      </c>
+      <c r="E2870" t="inlineStr">
+        <is>
+          <t>[checkIntervalFullGc]     C:\__WorldX_P4\server\Engine/Core\Server\Memory\Gc.lua:42</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2871">
+      <c r="A2871" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:22:16.747080</t>
+        </is>
+      </c>
+      <c r="B2871" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C2871" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="D2871" t="inlineStr">
+        <is>
+          <t>Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1) fully save db, dbversion=465, dbterm=13</t>
+        </is>
+      </c>
+      <c r="E2871" t="inlineStr">
+        <is>
+          <t>[handler]     ...er\Engine/Core\Server\Components\PersistentComponent.lua:171</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2872">
+      <c r="A2872" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:22:16.747107</t>
+        </is>
+      </c>
+      <c r="B2872" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C2872" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="D2872" t="inlineStr">
+        <is>
+          <t>copySingleWorldData	Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1)	252</t>
+        </is>
+      </c>
+      <c r="E2872" t="inlineStr">
+        <is>
+          <t>[copySingleWorldData]     ...rldX_P4\server\Scripts/Entities\SpaceEntities\Player.lua:637</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2873">
+      <c r="A2873" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:22:16.887637</t>
+        </is>
+      </c>
+      <c r="B2873" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C2873" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="D2873" t="inlineStr">
+        <is>
+          <t>saveAck for Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1)</t>
+        </is>
+      </c>
+      <c r="E2873" t="inlineStr">
+        <is>
+          <t>[callback]     ...ceEntities\PlayerComponent\PlayerPersistentComponent.lua:37</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="2874">
+      <c r="A2874" t="inlineStr">
+        <is>
+          <t>2024-12-02 15:22:16.887657</t>
+        </is>
+      </c>
+      <c r="B2874" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C2874" t="inlineStr">
+        <is>
+          <t>Player</t>
+        </is>
+      </c>
+      <c r="D2874" t="inlineStr">
+        <is>
+          <t>Player(uid=32906, entityId=Z0hiqZrYVkUqGKtT, actorId=1) fully save db succeed, dbversion=465, dbterm=13</t>
+        </is>
+      </c>
+      <c r="E2874" t="inlineStr">
+        <is>
+          <t>[saveAck]     ...er\Engine/Core\Server\Components\PersistentComponent.lua:156</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
